--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C4811A-AEC7-40BF-BC04-FA83C496111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99B3B72-8CA5-4AB6-A26F-7CCE27CC629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -90,253 +90,254 @@
     <t>Primary Arithmetic</t>
   </si>
   <si>
+    <t>Hashmat the brave warrior</t>
+  </si>
+  <si>
+    <t>Tell me the frequencies!</t>
+  </si>
+  <si>
+    <t>Back to High School Physics</t>
+  </si>
+  <si>
+    <t>physics　</t>
+  </si>
+  <si>
+    <t>WERTYU</t>
+  </si>
+  <si>
+    <t>simulation　</t>
+  </si>
+  <si>
+    <t>What is the Median?</t>
+  </si>
+  <si>
+    <t>Request for Proposal</t>
+  </si>
+  <si>
+    <t>Is This Integration ?</t>
+  </si>
+  <si>
+    <t>Decode the Mad man</t>
+  </si>
+  <si>
+    <t>Ecological Premium</t>
+  </si>
+  <si>
+    <t>All in All</t>
+  </si>
+  <si>
+    <t>Above Average</t>
+  </si>
+  <si>
+    <t>Simple Base Conversion</t>
+  </si>
+  <si>
+    <t>%X　</t>
+  </si>
+  <si>
+    <t>The Land of Justice</t>
+  </si>
+  <si>
+    <t>Combination Lock</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>geometry　</t>
+  </si>
+  <si>
+    <t>Play with Floor and Ceil</t>
+  </si>
+  <si>
+    <t>f91</t>
+  </si>
+  <si>
+    <t>Odd Sum</t>
+  </si>
+  <si>
+    <t>Prime Frequency</t>
+  </si>
+  <si>
+    <t>prime　</t>
+  </si>
+  <si>
+    <t>Beat the Spread!</t>
+  </si>
+  <si>
+    <t>Decode the tape</t>
+  </si>
+  <si>
+    <t>ascii code　</t>
+  </si>
+  <si>
+    <t>Rock-Paper-Scissors</t>
+  </si>
+  <si>
+    <t>Prime Words</t>
+  </si>
+  <si>
+    <t>You can say 11</t>
+  </si>
+  <si>
+    <t>The Swallowing Ground</t>
+  </si>
+  <si>
+    <t>Maximum Product</t>
+  </si>
+  <si>
+    <t>Relational Operators</t>
+  </si>
+  <si>
+    <t>Ternary</t>
+  </si>
+  <si>
+    <t>Group Reverse</t>
+  </si>
+  <si>
+    <t>Musical instruments</t>
+  </si>
+  <si>
+    <t>ad hoc　</t>
+  </si>
+  <si>
+    <t>How old are you?</t>
+  </si>
+  <si>
+    <t>Summing Digits</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Shopaholic</t>
+  </si>
+  <si>
+    <t>The Base-1 Number System</t>
+  </si>
+  <si>
+    <t>Is this the easiest problem?</t>
+  </si>
+  <si>
+    <t>long long　</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Division of Nlogonia</t>
+  </si>
+  <si>
+    <t>Decoding</t>
+  </si>
+  <si>
+    <t>isupper(), isdigitr()　</t>
+  </si>
+  <si>
+    <t>Letter Frequency</t>
+  </si>
+  <si>
+    <t>isupper(), islower()　</t>
+  </si>
+  <si>
+    <t>Burger Time</t>
+  </si>
+  <si>
+    <t>Digits</t>
+  </si>
+  <si>
+    <t>Soda Surpler</t>
+  </si>
+  <si>
+    <t>Credit Check</t>
+  </si>
+  <si>
+    <t>Jumping Mario</t>
+  </si>
+  <si>
+    <t>Brick Game</t>
+  </si>
+  <si>
+    <t>Multiple of 17</t>
+  </si>
+  <si>
+    <t>The Lazy Lumberjacks</t>
+  </si>
+  <si>
+    <t>Lumberjack Sequencing</t>
+  </si>
+  <si>
+    <t>A Change in Thermal Unit</t>
+  </si>
+  <si>
+    <t>Doom`s Day Algorithm</t>
+  </si>
+  <si>
+    <t>Feynman</t>
+  </si>
+  <si>
+    <t>Jingle Composing</t>
+  </si>
+  <si>
+    <t>One-Two-Three</t>
+  </si>
+  <si>
+    <t>Scarecrow</t>
+  </si>
+  <si>
+    <t>greedy　</t>
+  </si>
+  <si>
+    <t>Bees` ancestors</t>
+  </si>
+  <si>
+    <t>Zapping</t>
+  </si>
+  <si>
+    <t>Nice Licence Plates</t>
+  </si>
+  <si>
+    <t>Dangerous Dive</t>
+  </si>
+  <si>
+    <t>1D array　</t>
+  </si>
+  <si>
+    <t>Is it multiple of 3?</t>
+  </si>
+  <si>
+    <t>DPA Number I</t>
+  </si>
+  <si>
+    <t>Felipe and the Sequence</t>
+  </si>
+  <si>
+    <t>Problem with a ridiculously long name but ...</t>
+  </si>
+  <si>
+    <t>題目編號</t>
+  </si>
+  <si>
+    <t>題目名稱</t>
+  </si>
+  <si>
+    <t>困難度</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>參考解題方向</t>
+  </si>
+  <si>
+    <t>發佈日期</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Jolly Jumpers</t>
-  </si>
-  <si>
-    <t>Hashmat the brave warrior</t>
-  </si>
-  <si>
-    <t>Tell me the frequencies!</t>
-  </si>
-  <si>
-    <t>Back to High School Physics</t>
-  </si>
-  <si>
-    <t>physics　</t>
-  </si>
-  <si>
-    <t>WERTYU</t>
-  </si>
-  <si>
-    <t>simulation　</t>
-  </si>
-  <si>
-    <t>What is the Median?</t>
-  </si>
-  <si>
-    <t>Request for Proposal</t>
-  </si>
-  <si>
-    <t>Is This Integration ?</t>
-  </si>
-  <si>
-    <t>Decode the Mad man</t>
-  </si>
-  <si>
-    <t>Ecological Premium</t>
-  </si>
-  <si>
-    <t>All in All</t>
-  </si>
-  <si>
-    <t>Above Average</t>
-  </si>
-  <si>
-    <t>Simple Base Conversion</t>
-  </si>
-  <si>
-    <t>%X　</t>
-  </si>
-  <si>
-    <t>The Land of Justice</t>
-  </si>
-  <si>
-    <t>Combination Lock</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>geometry　</t>
-  </si>
-  <si>
-    <t>Play with Floor and Ceil</t>
-  </si>
-  <si>
-    <t>f91</t>
-  </si>
-  <si>
-    <t>Odd Sum</t>
-  </si>
-  <si>
-    <t>Prime Frequency</t>
-  </si>
-  <si>
-    <t>prime　</t>
-  </si>
-  <si>
-    <t>Beat the Spread!</t>
-  </si>
-  <si>
-    <t>Decode the tape</t>
-  </si>
-  <si>
-    <t>ascii code　</t>
-  </si>
-  <si>
-    <t>Rock-Paper-Scissors</t>
-  </si>
-  <si>
-    <t>Prime Words</t>
-  </si>
-  <si>
-    <t>You can say 11</t>
-  </si>
-  <si>
-    <t>The Swallowing Ground</t>
-  </si>
-  <si>
-    <t>Maximum Product</t>
-  </si>
-  <si>
-    <t>Relational Operators</t>
-  </si>
-  <si>
-    <t>Ternary</t>
-  </si>
-  <si>
-    <t>Group Reverse</t>
-  </si>
-  <si>
-    <t>Musical instruments</t>
-  </si>
-  <si>
-    <t>ad hoc　</t>
-  </si>
-  <si>
-    <t>How old are you?</t>
-  </si>
-  <si>
-    <t>Summing Digits</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>Shopaholic</t>
-  </si>
-  <si>
-    <t>The Base-1 Number System</t>
-  </si>
-  <si>
-    <t>Is this the easiest problem?</t>
-  </si>
-  <si>
-    <t>long long　</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Division of Nlogonia</t>
-  </si>
-  <si>
-    <t>Decoding</t>
-  </si>
-  <si>
-    <t>isupper(), isdigitr()　</t>
-  </si>
-  <si>
-    <t>Letter Frequency</t>
-  </si>
-  <si>
-    <t>isupper(), islower()　</t>
-  </si>
-  <si>
-    <t>Burger Time</t>
-  </si>
-  <si>
-    <t>Digits</t>
-  </si>
-  <si>
-    <t>Soda Surpler</t>
-  </si>
-  <si>
-    <t>Credit Check</t>
-  </si>
-  <si>
-    <t>Jumping Mario</t>
-  </si>
-  <si>
-    <t>Brick Game</t>
-  </si>
-  <si>
-    <t>Multiple of 17</t>
-  </si>
-  <si>
-    <t>The Lazy Lumberjacks</t>
-  </si>
-  <si>
-    <t>Lumberjack Sequencing</t>
-  </si>
-  <si>
-    <t>A Change in Thermal Unit</t>
-  </si>
-  <si>
-    <t>Doom`s Day Algorithm</t>
-  </si>
-  <si>
-    <t>Feynman</t>
-  </si>
-  <si>
-    <t>Jingle Composing</t>
-  </si>
-  <si>
-    <t>One-Two-Three</t>
-  </si>
-  <si>
-    <t>Scarecrow</t>
-  </si>
-  <si>
-    <t>greedy　</t>
-  </si>
-  <si>
-    <t>Bees` ancestors</t>
-  </si>
-  <si>
-    <t>Zapping</t>
-  </si>
-  <si>
-    <t>Nice Licence Plates</t>
-  </si>
-  <si>
-    <t>Dangerous Dive</t>
-  </si>
-  <si>
-    <t>1D array　</t>
-  </si>
-  <si>
-    <t>Is it multiple of 3?</t>
-  </si>
-  <si>
-    <t>DPA Number I</t>
-  </si>
-  <si>
-    <t>Felipe and the Sequence</t>
-  </si>
-  <si>
-    <t>Problem with a ridiculously long name but ...</t>
-  </si>
-  <si>
-    <t>題目編號</t>
-  </si>
-  <si>
-    <t>題目名稱</t>
-  </si>
-  <si>
-    <t>困難度</t>
-  </si>
-  <si>
-    <t>提示</t>
-  </si>
-  <si>
-    <t>參考解題方向</t>
-  </si>
-  <si>
-    <t>發佈日期</t>
-  </si>
-  <si>
-    <t>ok</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -802,30 +803,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -848,7 +849,7 @@
         <v>37217</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -869,7 +870,7 @@
         <v>37701</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -890,7 +891,7 @@
         <v>37586</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -909,7 +910,7 @@
         <v>37533</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -980,7 +981,7 @@
         <v>37206</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1001,7 +1002,7 @@
         <v>37236</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1036,7 +1037,7 @@
         <v>37533</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1056,13 +1057,16 @@
       <c r="F13" s="8">
         <v>37362</v>
       </c>
+      <c r="G13" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10038</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
@@ -1074,13 +1078,16 @@
       <c r="F14" s="4">
         <v>37615</v>
       </c>
+      <c r="G14" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10055</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
@@ -1090,13 +1097,16 @@
       <c r="F15" s="8">
         <v>37362</v>
       </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10062</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1</v>
@@ -1112,14 +1122,14 @@
         <v>10071</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8">
         <v>37342</v>
@@ -1130,14 +1140,14 @@
         <v>10082</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="4">
         <v>37594</v>
@@ -1148,7 +1158,7 @@
         <v>10107</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>1</v>
@@ -1161,7 +1171,7 @@
         <v>37342</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1169,7 +1179,7 @@
         <v>10141</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
@@ -1187,7 +1197,7 @@
         <v>10209</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1</v>
@@ -1205,7 +1215,7 @@
         <v>10222</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1</v>
@@ -1225,7 +1235,7 @@
         <v>10300</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -1241,7 +1251,7 @@
         <v>10340</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1</v>
@@ -1259,7 +1269,7 @@
         <v>10370</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>1</v>
@@ -1279,13 +1289,13 @@
         <v>10473</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>3</v>
@@ -1299,7 +1309,7 @@
         <v>10499</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>1</v>
@@ -1317,7 +1327,7 @@
         <v>10550</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1</v>
@@ -1335,14 +1345,14 @@
         <v>10589</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="8">
         <v>38405</v>
@@ -1353,7 +1363,7 @@
         <v>10673</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -1371,7 +1381,7 @@
         <v>10696</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>1</v>
@@ -1387,7 +1397,7 @@
         <v>10783</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
@@ -1405,14 +1415,14 @@
         <v>10789</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" s="8">
         <v>38740</v>
@@ -1423,7 +1433,7 @@
         <v>10812</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1</v>
@@ -1439,13 +1449,13 @@
         <v>10878</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>3</v>
@@ -1459,7 +1469,7 @@
         <v>10903</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
@@ -1477,14 +1487,14 @@
         <v>10924</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" s="8">
         <v>38652</v>
@@ -1495,7 +1505,7 @@
         <v>10929</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
@@ -1508,7 +1518,7 @@
         <v>38798</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1516,7 +1526,7 @@
         <v>10963</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>1</v>
@@ -1532,7 +1542,7 @@
         <v>11059</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
@@ -1550,7 +1560,7 @@
         <v>11172</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>1</v>
@@ -1566,7 +1576,7 @@
         <v>11185</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
@@ -1582,7 +1592,7 @@
         <v>11192</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>1</v>
@@ -1600,14 +1610,14 @@
         <v>11204</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" s="4">
         <v>40973</v>
@@ -1618,14 +1628,14 @@
         <v>11219</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="8">
         <v>40903</v>
@@ -1636,7 +1646,7 @@
         <v>11332</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1</v>
@@ -1652,7 +1662,7 @@
         <v>11364</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>1</v>
@@ -1668,7 +1678,7 @@
         <v>11369</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1</v>
@@ -1684,14 +1694,14 @@
         <v>11398</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" s="8">
         <v>41037</v>
@@ -1702,20 +1712,20 @@
         <v>11479</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="4">
         <v>40823</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1723,7 +1733,7 @@
         <v>11494</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>1</v>
@@ -1739,20 +1749,20 @@
         <v>11498</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" s="4">
         <v>40910</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -1760,13 +1770,13 @@
         <v>11541</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>11</v>
@@ -1775,7 +1785,7 @@
         <v>40917</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1783,13 +1793,13 @@
         <v>11577</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
@@ -1803,7 +1813,7 @@
         <v>11661</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>1</v>
@@ -1819,7 +1829,7 @@
         <v>11687</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1</v>
@@ -1835,7 +1845,7 @@
         <v>11689</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>1</v>
@@ -1851,20 +1861,20 @@
         <v>11743</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58" s="4">
         <v>40911</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1872,14 +1882,14 @@
         <v>11764</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="8">
         <v>41194</v>
@@ -1890,17 +1900,20 @@
         <v>11875</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F60" s="4">
         <v>40910</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1908,7 +1921,7 @@
         <v>11879</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>1</v>
@@ -1921,7 +1934,7 @@
         <v>40904</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1929,20 +1942,20 @@
         <v>11936</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F62" s="4">
         <v>40903</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1950,20 +1963,20 @@
         <v>11942</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F63" s="8">
         <v>40899</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -1971,14 +1984,14 @@
         <v>11984</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F64" s="4">
         <v>40904</v>
@@ -1989,20 +2002,20 @@
         <v>12019</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F65" s="8">
         <v>40910</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2010,14 +2023,14 @@
         <v>12149</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F66" s="4">
         <v>40866</v>
@@ -2028,7 +2041,7 @@
         <v>12195</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>1</v>
@@ -2046,14 +2059,14 @@
         <v>12289</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F68" s="4">
         <v>41037</v>
@@ -2064,16 +2077,16 @@
         <v>12405</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="E69" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69" s="8">
         <v>41037</v>
@@ -2091,13 +2104,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F70" s="4">
         <v>41037</v>
       </c>
       <c r="G70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2105,14 +2118,14 @@
         <v>12459</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F71" s="8">
         <v>41177</v>
@@ -2123,20 +2136,20 @@
         <v>12468</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F72" s="4">
         <v>41177</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2144,7 +2157,7 @@
         <v>12602</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>1</v>
@@ -2155,7 +2168,7 @@
         <v>41569</v>
       </c>
       <c r="G73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2163,13 +2176,13 @@
         <v>12650</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4">
@@ -2181,7 +2194,7 @@
         <v>13178</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>1</v>
@@ -2199,7 +2212,7 @@
         <v>13185</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1</v>
@@ -2217,7 +2230,7 @@
         <v>13187</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>1</v>
@@ -2235,7 +2248,7 @@
         <v>13216</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1</v>

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99B3B72-8CA5-4AB6-A26F-7CCE27CC629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655409D4-B13B-435C-BC13-0143C6261352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="101">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -804,7 +804,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1854,6 +1854,9 @@
       <c r="E57" s="6"/>
       <c r="F57" s="8">
         <v>40475</v>
+      </c>
+      <c r="G57" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655409D4-B13B-435C-BC13-0143C6261352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD9552F-D2C9-4174-8895-615047B051C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="101">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1409,6 +1409,9 @@
       <c r="F32" s="4">
         <v>38740</v>
       </c>
+      <c r="G32" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
@@ -1897,6 +1900,9 @@
       <c r="F59" s="8">
         <v>41194</v>
       </c>
+      <c r="G59" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
@@ -1999,6 +2005,9 @@
       <c r="F64" s="4">
         <v>40904</v>
       </c>
+      <c r="G64" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
@@ -2132,6 +2141,9 @@
       </c>
       <c r="F71" s="8">
         <v>41177</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2190,6 +2202,9 @@
       <c r="E74" s="2"/>
       <c r="F74" s="4">
         <v>41635</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD9552F-D2C9-4174-8895-615047B051C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2EE462-1FDD-49F4-B462-E9101824B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="101">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -930,6 +930,9 @@
       <c r="F6" s="4">
         <v>37592</v>
       </c>
+      <c r="G6" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -1659,6 +1662,9 @@
       <c r="F46" s="4">
         <v>40819</v>
       </c>
+      <c r="G46" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
@@ -1675,6 +1681,9 @@
       <c r="F47" s="8">
         <v>40816</v>
       </c>
+      <c r="G47" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -2082,6 +2091,9 @@
       </c>
       <c r="F68" s="4">
         <v>41037</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2EE462-1FDD-49F4-B462-E9101824B407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3818EFC5-9613-4DB1-8D35-5506D0774516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="101">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1023,6 +1023,9 @@
       <c r="F11" s="8">
         <v>39175</v>
       </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1119,6 +1122,9 @@
       <c r="F16" s="4">
         <v>37362</v>
       </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -1248,6 +1254,9 @@
       <c r="F23" s="8">
         <v>37517</v>
       </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1449,6 +1458,9 @@
       <c r="F34" s="4">
         <v>38422</v>
       </c>
+      <c r="G34" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
@@ -1542,6 +1554,9 @@
       <c r="F39" s="8">
         <v>38974</v>
       </c>
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -1851,6 +1866,9 @@
       <c r="F56" s="4">
         <v>40864</v>
       </c>
+      <c r="G56" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
@@ -2056,6 +2074,9 @@
       <c r="F66" s="4">
         <v>40866</v>
       </c>
+      <c r="G66" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
@@ -2073,6 +2094,9 @@
       </c>
       <c r="F67" s="8">
         <v>41562</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2236,6 +2260,9 @@
       <c r="F75" s="8">
         <v>43034</v>
       </c>
+      <c r="G75" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
@@ -2253,6 +2280,9 @@
       </c>
       <c r="F76" s="4">
         <v>42887</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3818EFC5-9613-4DB1-8D35-5506D0774516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FA2FC-363A-40A1-9718-E58DA3416CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="101">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1238,6 +1238,9 @@
       <c r="F22" s="4">
         <v>38659</v>
       </c>
+      <c r="G22" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
@@ -1275,6 +1278,9 @@
       <c r="F24" s="4">
         <v>37516</v>
       </c>
+      <c r="G24" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
@@ -1517,6 +1523,9 @@
       <c r="F37" s="8">
         <v>38652</v>
       </c>
+      <c r="G37" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1575,6 +1584,9 @@
       <c r="F40" s="4">
         <v>38944</v>
       </c>
+      <c r="G40" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
@@ -1660,6 +1672,9 @@
       </c>
       <c r="F45" s="8">
         <v>40903</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FA2FC-363A-40A1-9718-E58DA3416CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CD195-5C36-4B25-AD49-F627C70C440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="102">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -338,6 +338,10 @@
   </si>
   <si>
     <t>Jolly Jumpers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          bn</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -437,6 +441,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -446,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +497,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -801,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1730,6 +1746,9 @@
       <c r="F48" s="4">
         <v>40819</v>
       </c>
+      <c r="G48" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
@@ -1849,6 +1868,9 @@
       <c r="F54" s="4">
         <v>40917</v>
       </c>
+      <c r="G54" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
@@ -2051,7 +2073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>12019</v>
       </c>
@@ -2072,7 +2094,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>12149</v>
       </c>
@@ -2093,7 +2115,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>12195</v>
       </c>
@@ -2114,7 +2136,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>12289</v>
       </c>
@@ -2135,7 +2157,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>12405</v>
       </c>
@@ -2154,8 +2176,11 @@
       <c r="F69" s="8">
         <v>41037</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>12439</v>
       </c>
@@ -2176,7 +2201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>12459</v>
       </c>
@@ -2197,7 +2222,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>12468</v>
       </c>
@@ -2218,7 +2243,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>12602</v>
       </c>
@@ -2237,7 +2262,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>12650</v>
       </c>
@@ -2258,7 +2283,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>13178</v>
       </c>
@@ -2279,7 +2304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>13185</v>
       </c>
@@ -2300,7 +2325,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>13187</v>
       </c>
@@ -2317,8 +2342,11 @@
       <c r="F77" s="8">
         <v>42905</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="G77" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>13216</v>
       </c>
@@ -2334,6 +2362,12 @@
       </c>
       <c r="F78" s="4">
         <v>42993</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CD195-5C36-4B25-AD49-F627C70C440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEF72E8-A578-47EB-BEA4-EDD4A9C008E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="103">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -342,6 +342,10 @@
   </si>
   <si>
     <t xml:space="preserve">          bn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -819,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1373,6 +1377,9 @@
       <c r="F28" s="4">
         <v>37951</v>
       </c>
+      <c r="G28" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -1503,6 +1510,9 @@
       <c r="F35" s="8">
         <v>38603</v>
       </c>
+      <c r="G35" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1520,6 +1530,9 @@
       </c>
       <c r="F36" s="4">
         <v>38625</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEF72E8-A578-47EB-BEA4-EDD4A9C008E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD4B2D-DFFC-415B-8B8B-43FD54FF44CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="103">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1220,6 +1220,9 @@
       <c r="F20" s="4">
         <v>37909</v>
       </c>
+      <c r="G20" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -1237,6 +1240,9 @@
       </c>
       <c r="F21" s="8">
         <v>37319</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1341,6 +1347,9 @@
       <c r="F26" s="4">
         <v>38303</v>
       </c>
+      <c r="G26" s="12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1415,6 +1424,9 @@
       </c>
       <c r="F30" s="4">
         <v>38350</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1648,6 +1660,9 @@
       <c r="F42" s="4">
         <v>39164</v>
       </c>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
@@ -1899,6 +1914,9 @@
       <c r="E55" s="6"/>
       <c r="F55" s="8">
         <v>40475</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">

--- a/uva/uva題單(已自動修復).xlsx
+++ b/uva/uva題單(已自動修復).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD4B2D-DFFC-415B-8B8B-43FD54FF44CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F2D6A-FD96-4D62-B58C-31BD70A8ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="103">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -823,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -969,6 +969,9 @@
       <c r="F7" s="8">
         <v>38425</v>
       </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -986,6 +989,9 @@
       </c>
       <c r="F8" s="4">
         <v>37384</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1163,6 +1169,9 @@
       <c r="F17" s="8">
         <v>37342</v>
       </c>
+      <c r="G17" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1180,6 +1189,9 @@
       </c>
       <c r="F18" s="4">
         <v>37594</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1327,6 +1339,9 @@
       <c r="F25" s="8">
         <v>38614</v>
       </c>
+      <c r="G25" s="13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1368,6 +1383,9 @@
       <c r="F27" s="8">
         <v>37946</v>
       </c>
+      <c r="G27" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1406,6 +1424,9 @@
       </c>
       <c r="F29" s="8">
         <v>38405</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1444,6 +1465,9 @@
       <c r="F31" s="8">
         <v>38230</v>
       </c>
+      <c r="G31" s="13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1482,6 +1506,9 @@
       </c>
       <c r="F33" s="8">
         <v>38740</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1644,6 +1671,9 @@
       <c r="F41" s="8">
         <v>39175</v>
       </c>
+      <c r="G41" s="13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -1681,6 +1711,9 @@
       <c r="F43" s="8">
         <v>41718</v>
       </c>
+      <c r="G43" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1698,6 +1731,9 @@
       </c>
       <c r="F44" s="4">
         <v>40973</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1795,6 +1831,9 @@
       <c r="F49" s="8">
         <v>41037</v>
       </c>
+      <c r="G49" s="11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
@@ -1831,6 +1870,9 @@
       <c r="E51" s="6"/>
       <c r="F51" s="8">
         <v>40857</v>
+      </c>
+      <c r="G51" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
